--- a/Code/Undefined/Output.xlsx
+++ b/Code/Undefined/Output.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\Undefined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AC7DFF5-77B2-45DC-A757-2941DBA361BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28A9CBE8-F609-4C63-9813-5FC0438F9072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="6540" windowWidth="33300" windowHeight="12105" activeTab="3" xr2:uid="{9677F9B8-1418-4BB9-B2A8-F64A73BBE231}"/>
+    <workbookView xWindow="41325" yWindow="7230" windowWidth="33300" windowHeight="12105" activeTab="3" xr2:uid="{2E6E92B7-B4DA-4CF5-A198-C75A428F770D}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="2" r:id="rId1"/>
-    <sheet name="0xC001001" sheetId="3" r:id="rId2"/>
+    <sheet name="0C001001" sheetId="3" r:id="rId2"/>
     <sheet name="RxNormal&amp;RxTimeout" sheetId="4" r:id="rId3"/>
-    <sheet name="0x424" sheetId="5" r:id="rId4"/>
+    <sheet name="424" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Interface</t>
   </si>
@@ -89,7 +89,7 @@
     <t>J1939/ISO</t>
   </si>
   <si>
-    <t>0xC001001</t>
+    <t>0C001001</t>
   </si>
   <si>
     <t>J1939</t>
@@ -137,64 +137,52 @@
     <t>interface</t>
   </si>
   <si>
-    <t>SYCANC_COM2AP_0x424_rx_TSC1RECUEMdap_A</t>
-  </si>
-  <si>
-    <t>IFLayer_0x424_rx_TSC1RECUEMdap_A</t>
-  </si>
-  <si>
-    <t>K_TSC1RECUEMdap_A</t>
-  </si>
-  <si>
-    <t>can_gmlan_TSC1RECUEMdap_A</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_0x424_rx_TSC1RECUEMdap_B</t>
-  </si>
-  <si>
-    <t>IFLayer_0x424_rx_TSC1RECUEMdap_B</t>
-  </si>
-  <si>
-    <t>K_TSC1RECUEMdap_B</t>
-  </si>
-  <si>
-    <t>can_gmlan_TSC1RECUEMdap_B</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_0x424_rx_TSC1RECUEMdap_C</t>
-  </si>
-  <si>
-    <t>IFLayer_0x424_rx_TSC1RECUEMdap_C</t>
-  </si>
-  <si>
-    <t>K_TSC1RECUEMdap_C</t>
-  </si>
-  <si>
-    <t>can_gmlan_TSC1RECUEMdap_C</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_0x424_rx_TSC1RECUEMdap_D</t>
-  </si>
-  <si>
-    <t>IFLayer_0x424_rx_TSC1RECUEMdap_D</t>
-  </si>
-  <si>
-    <t>K_TSC1RECUEMdap_D</t>
-  </si>
-  <si>
-    <t>can_gmlan_TSC1RECUEMdap_D</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_0x424_rx_TSC1RECUEMdap_E</t>
-  </si>
-  <si>
-    <t>IFLayer_0x424_rx_TSC1RECUEMdap_E</t>
-  </si>
-  <si>
-    <t>K_TSC1RECUEMdap_E</t>
-  </si>
-  <si>
-    <t>can_gmlan_TSC1RECUEMdap_E</t>
+    <t>SYCANC_COM2AP_424_rx_VCMP19C02_A</t>
+  </si>
+  <si>
+    <t>IFLayer_424_rx_VCMP19C02_A</t>
+  </si>
+  <si>
+    <t>K_VCMP19C02_A</t>
+  </si>
+  <si>
+    <t>can_gmlan_VCMP19C02_A</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_424_rx_VCMP19C02_B</t>
+  </si>
+  <si>
+    <t>IFLayer_424_rx_VCMP19C02_B</t>
+  </si>
+  <si>
+    <t>K_VCMP19C02_B</t>
+  </si>
+  <si>
+    <t>can_gmlan_VCMP19C02_B</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_424_rx_VCMP19C02_C</t>
+  </si>
+  <si>
+    <t>IFLayer_424_rx_VCMP19C02_C</t>
+  </si>
+  <si>
+    <t>K_VCMP19C02_C</t>
+  </si>
+  <si>
+    <t>can_gmlan_VCMP19C02_C</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_424_rx_VCMP19C02_D</t>
+  </si>
+  <si>
+    <t>IFLayer_424_rx_VCMP19C02_D</t>
+  </si>
+  <si>
+    <t>K_VCMP19C02_D</t>
+  </si>
+  <si>
+    <t>can_gmlan_VCMP19C02_D</t>
   </si>
   <si>
     <t>Timeout flag</t>
@@ -215,22 +203,19 @@
     <t>can_gmlan_rx_timeout_xxx</t>
   </si>
   <si>
-    <t>0x424</t>
-  </si>
-  <si>
     <t>ISO</t>
   </si>
   <si>
-    <t>IFLayer_rx_cmplt_0x424</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_timeout_0x424</t>
-  </si>
-  <si>
-    <t>can_gmlan_cmplt_0x424</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_timeout_0x424</t>
+    <t>IFLayer_rx_cmplt_424</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_timeout_424</t>
+  </si>
+  <si>
+    <t>can_gmlan_cmplt_424</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_timeout_424</t>
   </si>
 </sst>
 </file>
@@ -649,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245BD624-81D9-4FA9-8BAE-5F94EFAE4FE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C27092-7459-4015-80D8-43512462A5FD}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -657,7 +642,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -690,7 +675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BA8AA7-E8BD-4127-9876-4AF4E9FE6F4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBD3BD6-2107-432E-B816-9D6C6B9063EA}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -840,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FD4077-F3F0-4DF5-8052-A511E467D884}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3048EB8-E96E-445A-A608-68B77FA22A63}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -869,47 +854,47 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
+      <c r="B2" s="2">
+        <v>424</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -919,18 +904,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055E63E8-2AE3-497B-A507-44F37BA1265A}">
-  <dimension ref="A1:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94D176E-266A-41AC-9F41-5F38986D523E}">
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
@@ -1017,13 +1002,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
@@ -1088,7 +1073,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="2">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1097,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>8191.88</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -1125,16 +1110,16 @@
         <v>45</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1676.75</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
@@ -1154,43 +1139,6 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
